--- a/biology/Botanique/Sculpture_sur_bois/Sculpture_sur_bois.xlsx
+++ b/biology/Botanique/Sculpture_sur_bois/Sculpture_sur_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La sculpture sur bois est une technique que l'on pratique en retirant de la matière. Elle désigne également l’œuvre réalisée en bois.
-Bien que la pratique de la sculpture sur bois soit très ancienne (il n'en reste aucune trace, car le bois est une matière qui ne résiste pas aux outrages du temps), la sculpture en argile demeure la première technique et le premier matériau utilisé pour la sculpture[1].
+Bien que la pratique de la sculpture sur bois soit très ancienne (il n'en reste aucune trace, car le bois est une matière qui ne résiste pas aux outrages du temps), la sculpture en argile demeure la première technique et le premier matériau utilisé pour la sculpture.
 La sculpture sur bois constitue un savoir-faire reconnu par l'Inventaire du patrimoine culturel immatériel en France.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sculpture sur bois se différencie de la sculpture sur d'autres matériaux (argile, pierre…) :
 il faut souvent faire un assemblage à plat-joint avec plusieurs planches de bois (très sec), préalablement dégauchies et rabotées. Ces bois sont assemblés différemment selon que l'on désire réaliser un bas-relief ou une ronde-bosse (sculpture statuaire). L'assemblage du bois est réalisé de manière à éviter les fissures, et rétraction (ou dilatation du bois, en fonction du taux d'humidité ambiante) ;
@@ -555,9 +569,11 @@
           <t>Éléments historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis l'Antiquité gréco-romaine, la place du bois dans la hiérarchie des matériaux utilisés dans le travail de la sculpture est inférieure à celle des matières « nobles » que sont le bronze et le marbre. Les statues en bois antiques et médiévales sont généralement recouvertes d'une polychromie[2] parfois assez riche, mais se révèlent fragiles, d'où leur problème de conservation. « Si le corpus de la sculpture médiévale en bois est aujourd'hui aussi lacunaire, les destructions iconoclastes de la Réforme en sont une des causes premières, sans qu'il faille par ailleurs négliger les pertes intervenues lors de la Contre-Réforme, lorsque de nombreuses statues furent « cachées », ensevelies ou simplement détruites. Mais le matériau même de ces œuvres a considérablement desservi leur conservation, et pour plusieurs raisons : sa vulnérabilité, sa « mobilité », mais aussi le caractère populaire, « bon marché »[3]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis l'Antiquité gréco-romaine, la place du bois dans la hiérarchie des matériaux utilisés dans le travail de la sculpture est inférieure à celle des matières « nobles » que sont le bronze et le marbre. Les statues en bois antiques et médiévales sont généralement recouvertes d'une polychromie parfois assez riche, mais se révèlent fragiles, d'où leur problème de conservation. « Si le corpus de la sculpture médiévale en bois est aujourd'hui aussi lacunaire, les destructions iconoclastes de la Réforme en sont une des causes premières, sans qu'il faille par ailleurs négliger les pertes intervenues lors de la Contre-Réforme, lorsque de nombreuses statues furent « cachées », ensevelies ou simplement détruites. Mais le matériau même de ces œuvres a considérablement desservi leur conservation, et pour plusieurs raisons : sa vulnérabilité, sa « mobilité », mais aussi le caractère populaire, « bon marché ». »
 </t>
         </is>
       </c>
@@ -586,28 +602,220 @@
           <t>Les outils du sculpteur sur bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les sculpteurs ont de nombreux outils, ils acquièrent et se fabriquent ceux-ci au-fur et à mesure, selon leur projet et leur évolution technique.
-Outils traditionnels
-Outils de maintien
-L'établi est généralement en hêtre, ce bois absorbant les vibrations de manière optimale. Il peut contenir une presse allemande. Sa hauteur idéale de travail est au niveau du coude, debout face à l'établi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sculpteurs ont de nombreux outils, ils acquièrent et se fabriquent ceux-ci au-fur et à mesure, selon leur projet et leur évolution technique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Outils de maintien</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'établi est généralement en hêtre, ce bois absorbant les vibrations de manière optimale. Il peut contenir une presse allemande. Sa hauteur idéale de travail est au niveau du coude, debout face à l'établi.
 L'étau à chariot a les mors garnis de liège, de cuir ou de feutre.
 Les serre-joints.
-La vis anglaise ou queue-de-cochon.
-Les outils d'entretien
-La meule en grès à eau, sert au dégrossissage et à l'affûtage des biseaux extérieurs des gouges creuses, et les intérieurs des gouges assez ouvertes.
+La vis anglaise ou queue-de-cochon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les outils d'entretien</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La meule en grès à eau, sert au dégrossissage et à l'affûtage des biseaux extérieurs des gouges creuses, et les intérieurs des gouges assez ouvertes.
 Les pierres à morfiler servent à ôter le morfil laissé par la meule à eau. La pierre d'Arkansas et la pierre du Levant (Turquie) sont naturelles.
-Le stap ou cuir sert à donner un tranchant plus vif aux outils.
-Les outils à tracer
-Les compas, droit, d'épaisseur et de profondeur.
+Le stap ou cuir sert à donner un tranchant plus vif aux outils.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les outils à tracer</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les compas, droit, d'épaisseur et de profondeur.
 Le trusquin est un outil ingénieux qui permet de tracer des parallèles au côté de la pièce déjà dressé (exemple : la hauteur du fond levé d'un bas relief). Il est équipé d'une roue, ou d'une pointe, qui marque le bois.
-L'équerre et la fausse équerre.
-Les outils à frapper
-Le maillet est rond ou carré en bois dur pour l'ébauche.
-la massette est ronde ou carrée en acier ou alliage de zinc, pour le défonçage, l'ébauche et la découpe.
-Les gouges
-Fermoirs et nérons ont leurs biseaux identiques, le fermoir permet la découpe du motif d'un bas-relief par la frappe et de parfaire le fond, le néron est utilisé pour dégager les angles.
+L'équerre et la fausse équerre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les outils à frapper</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le maillet est rond ou carré en bois dur pour l'ébauche.
+la massette est ronde ou carrée en acier ou alliage de zinc, pour le défonçage, l'ébauche et la découpe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Les gouges</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fermoirs et nérons ont leurs biseaux identiques, le fermoir permet la découpe du motif d'un bas-relief par la frappe et de parfaire le fond, le néron est utilisé pour dégager les angles.
 Les gouges droites plates et méplates évitent de retirer trop de matière à la fois lorsque l'on est proche du modelé de la sculpture finale.
 Les gouges droites creuses ont de très nombreuses fonctions dont celles d'évider la matière principalement.
 Les gouges spatules ou queues de poissons, sont droites et étroites et s'évasent vers l'extrémité (tranchant).
@@ -616,22 +824,170 @@
 Les gouges contre-coudées permettent de travailler dans les zones convexes.
 Les gouges cuillère (ou cuiller) permettent de travailler dans les zones concaves tout en restant dans le sens du fil du bois.
 Les burins droits servent à dessiner, à graver, à former certains motifs (grains d'épis de blé par exemple).
-Les burins cuiller ou coudés ont la même fonction que les burins droits mais permettent d'accéder aux zones convexes afin de travailler dans le sens du fil du bois.
-Les outils de finition
-Les rifloirs sont de petites râpes qui permettent de finir certaines formes ou de donner un rendu particulier à certains détails minutieux. Ils sont utilisés surtout pour la ronde-bosse.
+Les burins cuiller ou coudés ont la même fonction que les burins droits mais permettent d'accéder aux zones convexes afin de travailler dans le sens du fil du bois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Les outils de finition</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les rifloirs sont de petites râpes qui permettent de finir certaines formes ou de donner un rendu particulier à certains détails minutieux. Ils sont utilisés surtout pour la ronde-bosse.
 Les racloirs sont des lames d'acier aux arêtes vives, emmanchées dans un bois peu épais et maintenues par une virole de cuir, afin d'abattre les aspérités laissées par la gouge. Ils sont utilisés de préférence dans le sens du fil. Et sont principalement utilisés dans l'industrie du meuble (une sculpture ornementale traditionnelle se finit à l'outil). Ils possèdent des formes variées en fonction des zones à travailler. L'affiloir est l'outil qui permet d'affûter les racloirs.
-Les râpes, limes et papier de verre.
-Les outils à estamper
-Utilisés en frappe, les principaux sont :
+Les râpes, limes et papier de verre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Les outils à estamper</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Utilisés en frappe, les principaux sont :
 les sabloirs donnent un aspect granité au fond ;
 les perloirs donnent l'arrondi des perles déjà ébauchées ;
-le poche-œil sert à former l'œil des feuillages.
-Les outils à fonds et moulures
-Les guimbardes sont des rabots avec des fers amovibles et interchangeables (plus ou moins larges, appelés « fer à bouvet ») qui permettent de réaliser les fonds entre les motifs en se posant sur les parties qui resteront saillantes. La surface d'appuis est donc large, la lame est au centre et on tire à soi l'outil. Cet outil est quasiment remplacé par la défonceuse, bien plus productive.
+le poche-œil sert à former l'œil des feuillages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Outils traditionnels</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Les outils à fonds et moulures</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les guimbardes sont des rabots avec des fers amovibles et interchangeables (plus ou moins larges, appelés « fer à bouvet ») qui permettent de réaliser les fonds entre les motifs en se posant sur les parties qui resteront saillantes. La surface d'appuis est donc large, la lame est au centre et on tire à soi l'outil. Cet outil est quasiment remplacé par la défonceuse, bien plus productive.
 Le tarabiscot est l'ancêtre (manuel) de la défonceuse. Il permet la réalisation de moulures « faites main ». Il fait encore mouche de nos jours de par la qualité de cet outil et le plaisir qu'il procure à son utilisateur.
-Les wastringues, ou raclettes, sont des outils polyvalents qui servent à racler, façonner les zones courbes ou galbées. Elles servent également à chanfreiner, arrondir ou aplanir le bois selon la forme de la lame de l'outil. Elles permettent une très grande précision de finition même sur les bois les plus difficiles grâce à l'affûtage à angle faible de la lame (20-25°).
-Outils contemporains
-De nos jours, surtout depuis l'invention de l'électricité et la mécanisation, de nouvelles machines sont apparues dans le domaine de la sculpture. Certains de ces outils sont très intéressants et apportent une véritable valeur ajoutée au travail de sculpture, mais en revanche, d'autres sont plus fantaisistes et font du tort à la sculpture lorsqu'elles ne sont utilisées qu'à des fins de productivité accrues (machines à reproduire).
+Les wastringues, ou raclettes, sont des outils polyvalents qui servent à racler, façonner les zones courbes ou galbées. Elles servent également à chanfreiner, arrondir ou aplanir le bois selon la forme de la lame de l'outil. Elles permettent une très grande précision de finition même sur les bois les plus difficiles grâce à l'affûtage à angle faible de la lame (20-25°).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sculpture_sur_bois</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les outils du sculpteur sur bois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Outils contemporains</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>De nos jours, surtout depuis l'invention de l'électricité et la mécanisation, de nouvelles machines sont apparues dans le domaine de la sculpture. Certains de ces outils sont très intéressants et apportent une véritable valeur ajoutée au travail de sculpture, mais en revanche, d'autres sont plus fantaisistes et font du tort à la sculpture lorsqu'elles ne sont utilisées qu'à des fins de productivité accrues (machines à reproduire).
 Parmi les outils remarquables, qui ont contribué à faire évoluer positivement la sculpture sur bois en n'enlevant rien à la valeur artistique des œuvres réalisées, il existe :
 le touret sert à affûter les ciseaux et autres outils de sculpture nécessitant un tranchant parfait. Le système « Koch » est le mieux placé pour effectuer des affûtages parfaits sans risques de détrempages et sans avoir à réaliser le démorfilage pour les outils plats ou faiblement cintrés. Pour les burins et les cintres importants, le démorfilage sur feutre reste la seule façon d'obtenir un tranchant adéquat ;
 la meule en grès à eau, électrique, elle préserve la durée de vie des gouges car l'affûtage se fait principalement à la pierre à morfiler ;
